--- a/templates/dataplant/CIMR/CIMR_-_Mass_spectrometry.xlsx
+++ b/templates/dataplant/CIMR/CIMR_-_Mass_spectrometry.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="158">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -209,13 +209,22 @@
     <t>Term Accession Number (MS:1000031)</t>
   </si>
   <si>
-    <t>Component [software]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MS:1000531)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MS:1000531)</t>
+    <t>Component [Control software name]</t>
+  </si>
+  <si>
+    <t>Term Source REF (CAO:000053)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (CAO:000053)</t>
+  </si>
+  <si>
+    <t>Parameter [Control software version]</t>
+  </si>
+  <si>
+    <t>Term Source REF (CAO:000054)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (CAO:000054)</t>
   </si>
   <si>
     <t>Parameter [sample introduction]</t>
@@ -414,6 +423,12 @@
   </si>
   <si>
     <t>https://www.ebi.ac.uk/ols4/ontologies/ms/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FMS_1002533</t>
+  </si>
+  <si>
+    <t>OpenLab CDS</t>
+  </si>
+  <si>
+    <t>2.7</t>
   </si>
   <si>
     <t>from GC</t>
@@ -526,8 +541,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:BS2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:BS2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:BV2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:BV2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -599,8 +614,11 @@
     <filterColumn colId="68" hiddenButton="1"/>
     <filterColumn colId="69" hiddenButton="1"/>
     <filterColumn colId="70" hiddenButton="1"/>
+    <filterColumn colId="71" hiddenButton="1"/>
+    <filterColumn colId="72" hiddenButton="1"/>
+    <filterColumn colId="73" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="71">
+  <tableColumns count="74">
     <tableColumn id="1" name="Input [Sample Name]" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Parameter [MS sample resuspension]" totalsRowFunction="none"/>
     <tableColumn id="3" name="Term Source REF (DPBO:0000044)" totalsRowFunction="none"/>
@@ -615,63 +633,66 @@
     <tableColumn id="12" name="Component [instrument model]" totalsRowFunction="none"/>
     <tableColumn id="13" name="Term Source REF (MS:1000031)" totalsRowFunction="none"/>
     <tableColumn id="14" name="Term Accession Number (MS:1000031)" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Component [software]" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Term Source REF (MS:1000531)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Term Accession Number (MS:1000531)" totalsRowFunction="none"/>
-    <tableColumn id="18" name="Parameter [sample introduction]" totalsRowFunction="none"/>
-    <tableColumn id="19" name="Term Source REF (AFP:0003813)" totalsRowFunction="none"/>
-    <tableColumn id="20" name="Term Accession Number (AFP:0003813)" totalsRowFunction="none"/>
-    <tableColumn id="21" name="Component [Ionization Source]" totalsRowFunction="none"/>
-    <tableColumn id="22" name="Term Source REF (NCIT:C47927)" totalsRowFunction="none"/>
-    <tableColumn id="23" name="Term Accession Number (NCIT:C47927)" totalsRowFunction="none"/>
-    <tableColumn id="24" name="Parameter [scan polarity]" totalsRowFunction="none"/>
-    <tableColumn id="25" name="Term Source REF (MS:1000465)" totalsRowFunction="none"/>
-    <tableColumn id="26" name="Term Accession Number (MS:1000465)" totalsRowFunction="none"/>
-    <tableColumn id="27" name="Parameter [Vacuum (physical force)]" totalsRowFunction="none"/>
-    <tableColumn id="28" name="Term Source REF (SNOMED:81547007)" totalsRowFunction="none"/>
-    <tableColumn id="29" name="Term Accession Number (SNOMED:81547007)" totalsRowFunction="none"/>
-    <tableColumn id="30" name="Parameter [skimmer and focusing lens voltages]" totalsRowFunction="none"/>
-    <tableColumn id="31" name="Term Source REF (DPBO:0000159)" totalsRowFunction="none"/>
-    <tableColumn id="32" name="Term Accession Number (DPBO:0000159)" totalsRowFunction="none"/>
-    <tableColumn id="33" name="Parameter [ionization gas flows]" totalsRowFunction="none"/>
-    <tableColumn id="34" name="Term Source REF (DPBO:0000160)" totalsRowFunction="none"/>
-    <tableColumn id="35" name="Term Accession Number (DPBO:0000160)" totalsRowFunction="none"/>
-    <tableColumn id="36" name="Component [mass analyzer]" totalsRowFunction="none"/>
-    <tableColumn id="37" name="Term Source REF (MS:1000451)" totalsRowFunction="none"/>
-    <tableColumn id="38" name="Term Accession Number (MS:1000451)" totalsRowFunction="none"/>
-    <tableColumn id="39" name="Parameter [mass spectrometry acquisition method]" totalsRowFunction="none"/>
-    <tableColumn id="40" name="Term Source REF (MS:1003213)" totalsRowFunction="none"/>
-    <tableColumn id="41" name="Term Accession Number (MS:1003213)" totalsRowFunction="none"/>
-    <tableColumn id="42" name="Parameter [data acquisition date]" totalsRowFunction="none"/>
-    <tableColumn id="43" name="Term Source REF (DPBO:0000161)" totalsRowFunction="none"/>
-    <tableColumn id="44" name="Term Accession Number (DPBO:0000161)" totalsRowFunction="none"/>
-    <tableColumn id="45" name="Parameter [Operator]" totalsRowFunction="none"/>
-    <tableColumn id="46" name="Term Source REF (NCIT:C48036)" totalsRowFunction="none"/>
-    <tableColumn id="47" name="Term Accession Number (NCIT:C48036)" totalsRowFunction="none"/>
-    <tableColumn id="48" name="Parameter [data acquisition rate]" totalsRowFunction="none"/>
-    <tableColumn id="49" name="Term Source REF (DPBO:0000162)" totalsRowFunction="none"/>
-    <tableColumn id="50" name="Term Accession Number (DPBO:0000162)" totalsRowFunction="none"/>
-    <tableColumn id="51" name="Parameter [m/z acquisition range]" totalsRowFunction="none"/>
-    <tableColumn id="52" name="Term Source REF (MS:4000069)" totalsRowFunction="none"/>
-    <tableColumn id="53" name="Term Accession Number (MS:4000069)" totalsRowFunction="none"/>
-    <tableColumn id="54" name="Component [Calibrant role]" totalsRowFunction="none"/>
-    <tableColumn id="55" name="Term Source REF (CAO:000088)" totalsRowFunction="none"/>
-    <tableColumn id="56" name="Term Accession Number (CAO:000088)" totalsRowFunction="none"/>
-    <tableColumn id="57" name="Parameter [mass resolution]" totalsRowFunction="none"/>
-    <tableColumn id="58" name="Term Source REF (MS:1000011)" totalsRowFunction="none"/>
-    <tableColumn id="59" name="Term Accession Number (MS:1000011)" totalsRowFunction="none"/>
-    <tableColumn id="60" name="Parameter [observed mass accuracy]" totalsRowFunction="none"/>
-    <tableColumn id="61" name="Term Source REF (MS:4000072)" totalsRowFunction="none"/>
-    <tableColumn id="62" name="Term Accession Number (MS:4000072)" totalsRowFunction="none"/>
-    <tableColumn id="63" name="Component [acquisition software]" totalsRowFunction="none"/>
-    <tableColumn id="64" name="Term Source REF (MS:1001455)" totalsRowFunction="none"/>
-    <tableColumn id="65" name="Term Accession Number (MS:1001455)" totalsRowFunction="none"/>
-    <tableColumn id="66" name="Parameter [mass spectrometer lock spray]" totalsRowFunction="none"/>
-    <tableColumn id="67" name="Term Source REF (DPBO:0000163)" totalsRowFunction="none"/>
-    <tableColumn id="68" name="Term Accession Number (DPBO:0000163)" totalsRowFunction="none"/>
-    <tableColumn id="69" name="Output [Data]" totalsRowFunction="none"/>
-    <tableColumn id="70" name="Data Format" totalsRowFunction="none"/>
-    <tableColumn id="71" name="Data Selector Format" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Component [Control software name]" totalsRowFunction="none"/>
+    <tableColumn id="16" name="Term Source REF (CAO:000053)" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Term Accession Number (CAO:000053)" totalsRowFunction="none"/>
+    <tableColumn id="18" name="Parameter [Control software version]" totalsRowFunction="none"/>
+    <tableColumn id="19" name="Term Source REF (CAO:000054)" totalsRowFunction="none"/>
+    <tableColumn id="20" name="Term Accession Number (CAO:000054)" totalsRowFunction="none"/>
+    <tableColumn id="21" name="Parameter [sample introduction]" totalsRowFunction="none"/>
+    <tableColumn id="22" name="Term Source REF (AFP:0003813)" totalsRowFunction="none"/>
+    <tableColumn id="23" name="Term Accession Number (AFP:0003813)" totalsRowFunction="none"/>
+    <tableColumn id="24" name="Component [Ionization Source]" totalsRowFunction="none"/>
+    <tableColumn id="25" name="Term Source REF (NCIT:C47927)" totalsRowFunction="none"/>
+    <tableColumn id="26" name="Term Accession Number (NCIT:C47927)" totalsRowFunction="none"/>
+    <tableColumn id="27" name="Parameter [scan polarity]" totalsRowFunction="none"/>
+    <tableColumn id="28" name="Term Source REF (MS:1000465)" totalsRowFunction="none"/>
+    <tableColumn id="29" name="Term Accession Number (MS:1000465)" totalsRowFunction="none"/>
+    <tableColumn id="30" name="Parameter [Vacuum (physical force)]" totalsRowFunction="none"/>
+    <tableColumn id="31" name="Term Source REF (SNOMED:81547007)" totalsRowFunction="none"/>
+    <tableColumn id="32" name="Term Accession Number (SNOMED:81547007)" totalsRowFunction="none"/>
+    <tableColumn id="33" name="Parameter [skimmer and focusing lens voltages]" totalsRowFunction="none"/>
+    <tableColumn id="34" name="Term Source REF (DPBO:0000159)" totalsRowFunction="none"/>
+    <tableColumn id="35" name="Term Accession Number (DPBO:0000159)" totalsRowFunction="none"/>
+    <tableColumn id="36" name="Parameter [ionization gas flows]" totalsRowFunction="none"/>
+    <tableColumn id="37" name="Term Source REF (DPBO:0000160)" totalsRowFunction="none"/>
+    <tableColumn id="38" name="Term Accession Number (DPBO:0000160)" totalsRowFunction="none"/>
+    <tableColumn id="39" name="Component [mass analyzer]" totalsRowFunction="none"/>
+    <tableColumn id="40" name="Term Source REF (MS:1000451)" totalsRowFunction="none"/>
+    <tableColumn id="41" name="Term Accession Number (MS:1000451)" totalsRowFunction="none"/>
+    <tableColumn id="42" name="Parameter [mass spectrometry acquisition method]" totalsRowFunction="none"/>
+    <tableColumn id="43" name="Term Source REF (MS:1003213)" totalsRowFunction="none"/>
+    <tableColumn id="44" name="Term Accession Number (MS:1003213)" totalsRowFunction="none"/>
+    <tableColumn id="45" name="Parameter [data acquisition date]" totalsRowFunction="none"/>
+    <tableColumn id="46" name="Term Source REF (DPBO:0000161)" totalsRowFunction="none"/>
+    <tableColumn id="47" name="Term Accession Number (DPBO:0000161)" totalsRowFunction="none"/>
+    <tableColumn id="48" name="Parameter [Operator]" totalsRowFunction="none"/>
+    <tableColumn id="49" name="Term Source REF (NCIT:C48036)" totalsRowFunction="none"/>
+    <tableColumn id="50" name="Term Accession Number (NCIT:C48036)" totalsRowFunction="none"/>
+    <tableColumn id="51" name="Parameter [data acquisition rate]" totalsRowFunction="none"/>
+    <tableColumn id="52" name="Term Source REF (DPBO:0000162)" totalsRowFunction="none"/>
+    <tableColumn id="53" name="Term Accession Number (DPBO:0000162)" totalsRowFunction="none"/>
+    <tableColumn id="54" name="Parameter [m/z acquisition range]" totalsRowFunction="none"/>
+    <tableColumn id="55" name="Term Source REF (MS:4000069)" totalsRowFunction="none"/>
+    <tableColumn id="56" name="Term Accession Number (MS:4000069)" totalsRowFunction="none"/>
+    <tableColumn id="57" name="Component [Calibrant role]" totalsRowFunction="none"/>
+    <tableColumn id="58" name="Term Source REF (CAO:000088)" totalsRowFunction="none"/>
+    <tableColumn id="59" name="Term Accession Number (CAO:000088)" totalsRowFunction="none"/>
+    <tableColumn id="60" name="Parameter [mass resolution]" totalsRowFunction="none"/>
+    <tableColumn id="61" name="Term Source REF (MS:1000011)" totalsRowFunction="none"/>
+    <tableColumn id="62" name="Term Accession Number (MS:1000011)" totalsRowFunction="none"/>
+    <tableColumn id="63" name="Parameter [observed mass accuracy]" totalsRowFunction="none"/>
+    <tableColumn id="64" name="Term Source REF (MS:4000072)" totalsRowFunction="none"/>
+    <tableColumn id="65" name="Term Accession Number (MS:4000072)" totalsRowFunction="none"/>
+    <tableColumn id="66" name="Component [acquisition software]" totalsRowFunction="none"/>
+    <tableColumn id="67" name="Term Source REF (MS:1001455)" totalsRowFunction="none"/>
+    <tableColumn id="68" name="Term Accession Number (MS:1001455)" totalsRowFunction="none"/>
+    <tableColumn id="69" name="Parameter [mass spectrometer lock spray]" totalsRowFunction="none"/>
+    <tableColumn id="70" name="Term Source REF (DPBO:0000163)" totalsRowFunction="none"/>
+    <tableColumn id="71" name="Term Accession Number (DPBO:0000163)" totalsRowFunction="none"/>
+    <tableColumn id="72" name="Output [Data]" totalsRowFunction="none"/>
+    <tableColumn id="73" name="Data Format" totalsRowFunction="none"/>
+    <tableColumn id="74" name="Data Selector Format" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1205,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS2"/>
+  <dimension ref="A1:BV2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1422,220 +1443,238 @@
       <c r="BS1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BT1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="R2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="S2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="T2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="U2" t="s">
+        <v>139</v>
+      </c>
+      <c r="V2" t="s">
+        <v>125</v>
+      </c>
+      <c r="W2" t="s">
+        <v>125</v>
+      </c>
+      <c r="X2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y2" t="s">
         <v>135</v>
       </c>
-      <c r="V2" t="s">
-        <v>132</v>
-      </c>
-      <c r="W2" t="s">
-        <v>136</v>
-      </c>
-      <c r="X2" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>122</v>
-      </c>
       <c r="Z2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="AA2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AB2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AC2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AD2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AE2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AF2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AG2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AH2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AI2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AJ2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AK2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AL2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AM2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AN2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AO2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AP2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AQ2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AR2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AS2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AT2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AU2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AV2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AW2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AX2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AY2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AZ2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BA2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BB2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BF2" t="s">
         <v>28</v>
       </c>
-      <c r="BD2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>149</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>122</v>
-      </c>
       <c r="BG2" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="BH2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="BI2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BJ2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BK2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="BL2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BM2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BN2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="BO2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BP2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BQ2" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="BR2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BS2" t="s">
-        <v>122</v>
+        <v>125</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/CIMR/CIMR_-_Mass_spectrometry.xlsx
+++ b/templates/dataplant/CIMR/CIMR_-_Mass_spectrometry.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="167">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -128,12 +128,18 @@
     <t>Eggels</t>
   </si>
   <si>
+    <t>Dörpholz</t>
+  </si>
+  <si>
     <t>Author First Name</t>
   </si>
   <si>
     <t>Stella</t>
   </si>
   <si>
+    <t>Hannah</t>
+  </si>
+  <si>
     <t>Author Mid Initials</t>
   </si>
   <si>
@@ -143,6 +149,9 @@
     <t>s.eggels@fz-juelich.de</t>
   </si>
   <si>
+    <t>h.doerpholz@fz-juelich.de</t>
+  </si>
+  <si>
     <t>Author Phone</t>
   </si>
   <si>
@@ -347,6 +356,9 @@
     <t>Parameter [mass resolution]</t>
   </si>
   <si>
+    <t xml:space="preserve">Unit </t>
+  </si>
+  <si>
     <t>Term Source REF (MS:1000011)</t>
   </si>
   <si>
@@ -356,6 +368,9 @@
     <t>Parameter [observed mass accuracy]</t>
   </si>
   <si>
+    <t xml:space="preserve">Unit  </t>
+  </si>
+  <si>
     <t>Term Source REF (MS:4000072)</t>
   </si>
   <si>
@@ -458,7 +473,7 @@
     <t>full scan</t>
   </si>
   <si>
-    <t>14.04.2025</t>
+    <t>2025-04-25</t>
   </si>
   <si>
     <t>Max Mustermann</t>
@@ -476,13 +491,25 @@
     <t>https://bioregistry.io/NCIT:C84156</t>
   </si>
   <si>
-    <t>5,000 to 100,000 FWHM</t>
-  </si>
-  <si>
-    <t>10 ppm</t>
-  </si>
-  <si>
-    <t>SCIEX TOF/TOF Series Explorer Softwa</t>
+    <t>5000-100000</t>
+  </si>
+  <si>
+    <t>full width at half-maximum</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ols4/ontologies/ms/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FMS_1000086</t>
+  </si>
+  <si>
+    <t>parts per million</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/UO:0000169</t>
+  </si>
+  <si>
+    <t>SCIEX TOF/TOF Series Explorer Software</t>
   </si>
   <si>
     <t>10 µM sodium formate,  0.1 ml/min, every 20 s</t>
@@ -541,8 +568,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:BV2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:BV2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:BX2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:BX2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -617,8 +644,10 @@
     <filterColumn colId="71" hiddenButton="1"/>
     <filterColumn colId="72" hiddenButton="1"/>
     <filterColumn colId="73" hiddenButton="1"/>
+    <filterColumn colId="74" hiddenButton="1"/>
+    <filterColumn colId="75" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="74">
+  <tableColumns count="76">
     <tableColumn id="1" name="Input [Sample Name]" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Parameter [MS sample resuspension]" totalsRowFunction="none"/>
     <tableColumn id="3" name="Term Source REF (DPBO:0000044)" totalsRowFunction="none"/>
@@ -679,20 +708,22 @@
     <tableColumn id="58" name="Term Source REF (CAO:000088)" totalsRowFunction="none"/>
     <tableColumn id="59" name="Term Accession Number (CAO:000088)" totalsRowFunction="none"/>
     <tableColumn id="60" name="Parameter [mass resolution]" totalsRowFunction="none"/>
-    <tableColumn id="61" name="Term Source REF (MS:1000011)" totalsRowFunction="none"/>
-    <tableColumn id="62" name="Term Accession Number (MS:1000011)" totalsRowFunction="none"/>
-    <tableColumn id="63" name="Parameter [observed mass accuracy]" totalsRowFunction="none"/>
-    <tableColumn id="64" name="Term Source REF (MS:4000072)" totalsRowFunction="none"/>
-    <tableColumn id="65" name="Term Accession Number (MS:4000072)" totalsRowFunction="none"/>
-    <tableColumn id="66" name="Component [acquisition software]" totalsRowFunction="none"/>
-    <tableColumn id="67" name="Term Source REF (MS:1001455)" totalsRowFunction="none"/>
-    <tableColumn id="68" name="Term Accession Number (MS:1001455)" totalsRowFunction="none"/>
-    <tableColumn id="69" name="Parameter [mass spectrometer lock spray]" totalsRowFunction="none"/>
-    <tableColumn id="70" name="Term Source REF (DPBO:0000163)" totalsRowFunction="none"/>
-    <tableColumn id="71" name="Term Accession Number (DPBO:0000163)" totalsRowFunction="none"/>
-    <tableColumn id="72" name="Output [Data]" totalsRowFunction="none"/>
-    <tableColumn id="73" name="Data Format" totalsRowFunction="none"/>
-    <tableColumn id="74" name="Data Selector Format" totalsRowFunction="none"/>
+    <tableColumn id="61" name="Unit " totalsRowFunction="none"/>
+    <tableColumn id="62" name="Term Source REF (MS:1000011)" totalsRowFunction="none"/>
+    <tableColumn id="63" name="Term Accession Number (MS:1000011)" totalsRowFunction="none"/>
+    <tableColumn id="64" name="Parameter [observed mass accuracy]" totalsRowFunction="none"/>
+    <tableColumn id="65" name="Unit  " totalsRowFunction="none"/>
+    <tableColumn id="66" name="Term Source REF (MS:4000072)" totalsRowFunction="none"/>
+    <tableColumn id="67" name="Term Accession Number (MS:4000072)" totalsRowFunction="none"/>
+    <tableColumn id="68" name="Component [acquisition software]" totalsRowFunction="none"/>
+    <tableColumn id="69" name="Term Source REF (MS:1001455)" totalsRowFunction="none"/>
+    <tableColumn id="70" name="Term Accession Number (MS:1001455)" totalsRowFunction="none"/>
+    <tableColumn id="71" name="Parameter [mass spectrometer lock spray]" totalsRowFunction="none"/>
+    <tableColumn id="72" name="Term Source REF (DPBO:0000163)" totalsRowFunction="none"/>
+    <tableColumn id="73" name="Term Accession Number (DPBO:0000163)" totalsRowFunction="none"/>
+    <tableColumn id="74" name="Output [Data]" totalsRowFunction="none"/>
+    <tableColumn id="75" name="Data Format" totalsRowFunction="none"/>
+    <tableColumn id="76" name="Data Selector Format" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1151,71 +1182,83 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1226,455 +1269,467 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BV2"/>
+  <dimension ref="A1:BX2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="S1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="T1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Z1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AB1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AC1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AD1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AE1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AF1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AG1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AH1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AI1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AK1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AL1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AM1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AN1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AO1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AP1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AQ1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AR1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AS1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AT1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AU1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AV1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AW1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AX1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AY1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AZ1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="BA1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BB1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="BC1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BD1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="BE1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BF1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="BG1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BH1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="BI1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BJ1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="BK1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BL1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BM1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BN1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="BO1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BP1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BQ1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BR1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BS1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BT1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BU1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="BV1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="N2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="R2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="S2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="T2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="U2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="V2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="W2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="X2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y2" t="s">
         <v>140</v>
       </c>
-      <c r="Y2" t="s">
-        <v>135</v>
-      </c>
       <c r="Z2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AA2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AB2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AC2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AD2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AE2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AF2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AG2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="AH2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AI2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AJ2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AK2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AL2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AM2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="AN2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AO2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AP2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AQ2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AR2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AS2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AT2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AU2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AV2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AW2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AX2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AY2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AZ2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="BA2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="BB2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="BC2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="BD2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="BE2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="BF2" t="s">
         <v>28</v>
       </c>
       <c r="BG2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="BH2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="BI2" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="BJ2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="BK2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="BL2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="BM2" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="BN2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="BO2" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="BP2" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="BQ2" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="BR2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="BS2" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="BT2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="BU2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="BV2" t="s">
-        <v>125</v>
+        <v>130</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/CIMR/CIMR_-_Mass_spectrometry.xlsx
+++ b/templates/dataplant/CIMR/CIMR_-_Mass_spectrometry.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="168">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -329,6 +329,9 @@
     <t>Parameter [data acquisition rate]</t>
   </si>
   <si>
+    <t xml:space="preserve">Unit </t>
+  </si>
+  <si>
     <t>Term Source REF (DPBO:0000162)</t>
   </si>
   <si>
@@ -356,7 +359,7 @@
     <t>Parameter [mass resolution]</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit </t>
+    <t xml:space="preserve">Unit  </t>
   </si>
   <si>
     <t>Term Source REF (MS:1000011)</t>
@@ -368,7 +371,7 @@
     <t>Parameter [observed mass accuracy]</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit  </t>
+    <t xml:space="preserve">Unit   </t>
   </si>
   <si>
     <t>Term Source REF (MS:4000072)</t>
@@ -479,7 +482,7 @@
     <t>Max Mustermann</t>
   </si>
   <si>
-    <t>10 scans per second</t>
+    <t>spectra per second</t>
   </si>
   <si>
     <t>100-1000</t>
@@ -568,8 +571,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:BX2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:BX2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:BY2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:BY2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -646,8 +649,9 @@
     <filterColumn colId="73" hiddenButton="1"/>
     <filterColumn colId="74" hiddenButton="1"/>
     <filterColumn colId="75" hiddenButton="1"/>
+    <filterColumn colId="76" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="76">
+  <tableColumns count="77">
     <tableColumn id="1" name="Input [Sample Name]" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Parameter [MS sample resuspension]" totalsRowFunction="none"/>
     <tableColumn id="3" name="Term Source REF (DPBO:0000044)" totalsRowFunction="none"/>
@@ -699,31 +703,32 @@
     <tableColumn id="49" name="Term Source REF (NCIT:C48036)" totalsRowFunction="none"/>
     <tableColumn id="50" name="Term Accession Number (NCIT:C48036)" totalsRowFunction="none"/>
     <tableColumn id="51" name="Parameter [data acquisition rate]" totalsRowFunction="none"/>
-    <tableColumn id="52" name="Term Source REF (DPBO:0000162)" totalsRowFunction="none"/>
-    <tableColumn id="53" name="Term Accession Number (DPBO:0000162)" totalsRowFunction="none"/>
-    <tableColumn id="54" name="Parameter [m/z acquisition range]" totalsRowFunction="none"/>
-    <tableColumn id="55" name="Term Source REF (MS:4000069)" totalsRowFunction="none"/>
-    <tableColumn id="56" name="Term Accession Number (MS:4000069)" totalsRowFunction="none"/>
-    <tableColumn id="57" name="Component [Calibrant role]" totalsRowFunction="none"/>
-    <tableColumn id="58" name="Term Source REF (CAO:000088)" totalsRowFunction="none"/>
-    <tableColumn id="59" name="Term Accession Number (CAO:000088)" totalsRowFunction="none"/>
-    <tableColumn id="60" name="Parameter [mass resolution]" totalsRowFunction="none"/>
-    <tableColumn id="61" name="Unit " totalsRowFunction="none"/>
-    <tableColumn id="62" name="Term Source REF (MS:1000011)" totalsRowFunction="none"/>
-    <tableColumn id="63" name="Term Accession Number (MS:1000011)" totalsRowFunction="none"/>
-    <tableColumn id="64" name="Parameter [observed mass accuracy]" totalsRowFunction="none"/>
-    <tableColumn id="65" name="Unit  " totalsRowFunction="none"/>
-    <tableColumn id="66" name="Term Source REF (MS:4000072)" totalsRowFunction="none"/>
-    <tableColumn id="67" name="Term Accession Number (MS:4000072)" totalsRowFunction="none"/>
-    <tableColumn id="68" name="Component [acquisition software]" totalsRowFunction="none"/>
-    <tableColumn id="69" name="Term Source REF (MS:1001455)" totalsRowFunction="none"/>
-    <tableColumn id="70" name="Term Accession Number (MS:1001455)" totalsRowFunction="none"/>
-    <tableColumn id="71" name="Parameter [mass spectrometer lock spray]" totalsRowFunction="none"/>
-    <tableColumn id="72" name="Term Source REF (DPBO:0000163)" totalsRowFunction="none"/>
-    <tableColumn id="73" name="Term Accession Number (DPBO:0000163)" totalsRowFunction="none"/>
-    <tableColumn id="74" name="Output [Data]" totalsRowFunction="none"/>
-    <tableColumn id="75" name="Data Format" totalsRowFunction="none"/>
-    <tableColumn id="76" name="Data Selector Format" totalsRowFunction="none"/>
+    <tableColumn id="52" name="Unit " totalsRowFunction="none"/>
+    <tableColumn id="53" name="Term Source REF (DPBO:0000162)" totalsRowFunction="none"/>
+    <tableColumn id="54" name="Term Accession Number (DPBO:0000162)" totalsRowFunction="none"/>
+    <tableColumn id="55" name="Parameter [m/z acquisition range]" totalsRowFunction="none"/>
+    <tableColumn id="56" name="Term Source REF (MS:4000069)" totalsRowFunction="none"/>
+    <tableColumn id="57" name="Term Accession Number (MS:4000069)" totalsRowFunction="none"/>
+    <tableColumn id="58" name="Component [Calibrant role]" totalsRowFunction="none"/>
+    <tableColumn id="59" name="Term Source REF (CAO:000088)" totalsRowFunction="none"/>
+    <tableColumn id="60" name="Term Accession Number (CAO:000088)" totalsRowFunction="none"/>
+    <tableColumn id="61" name="Parameter [mass resolution]" totalsRowFunction="none"/>
+    <tableColumn id="62" name="Unit  " totalsRowFunction="none"/>
+    <tableColumn id="63" name="Term Source REF (MS:1000011)" totalsRowFunction="none"/>
+    <tableColumn id="64" name="Term Accession Number (MS:1000011)" totalsRowFunction="none"/>
+    <tableColumn id="65" name="Parameter [observed mass accuracy]" totalsRowFunction="none"/>
+    <tableColumn id="66" name="Unit   " totalsRowFunction="none"/>
+    <tableColumn id="67" name="Term Source REF (MS:4000072)" totalsRowFunction="none"/>
+    <tableColumn id="68" name="Term Accession Number (MS:4000072)" totalsRowFunction="none"/>
+    <tableColumn id="69" name="Component [acquisition software]" totalsRowFunction="none"/>
+    <tableColumn id="70" name="Term Source REF (MS:1001455)" totalsRowFunction="none"/>
+    <tableColumn id="71" name="Term Accession Number (MS:1001455)" totalsRowFunction="none"/>
+    <tableColumn id="72" name="Parameter [mass spectrometer lock spray]" totalsRowFunction="none"/>
+    <tableColumn id="73" name="Term Source REF (DPBO:0000163)" totalsRowFunction="none"/>
+    <tableColumn id="74" name="Term Accession Number (DPBO:0000163)" totalsRowFunction="none"/>
+    <tableColumn id="75" name="Output [Data]" totalsRowFunction="none"/>
+    <tableColumn id="76" name="Data Format" totalsRowFunction="none"/>
+    <tableColumn id="77" name="Data Selector Format" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1269,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX2"/>
+  <dimension ref="A1:BY2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1501,184 +1506,187 @@
       <c r="BX1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="BY1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>131</v>
+      </c>
+      <c r="R2" t="s">
+        <v>144</v>
+      </c>
+      <c r="S2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T2" t="s">
+        <v>131</v>
+      </c>
+      <c r="U2" t="s">
+        <v>145</v>
+      </c>
+      <c r="V2" t="s">
+        <v>131</v>
+      </c>
+      <c r="W2" t="s">
+        <v>131</v>
+      </c>
+      <c r="X2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY2" t="s">
         <v>136</v>
       </c>
-      <c r="J2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" t="s">
-        <v>140</v>
-      </c>
-      <c r="N2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P2" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R2" t="s">
-        <v>143</v>
-      </c>
-      <c r="S2" t="s">
-        <v>130</v>
-      </c>
-      <c r="T2" t="s">
-        <v>130</v>
-      </c>
-      <c r="U2" t="s">
-        <v>144</v>
-      </c>
-      <c r="V2" t="s">
-        <v>130</v>
-      </c>
-      <c r="W2" t="s">
-        <v>130</v>
-      </c>
-      <c r="X2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>155</v>
-      </c>
       <c r="AZ2" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="BA2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BB2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="BC2" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="BD2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BE2" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="BF2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG2" t="s">
         <v>28</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>158</v>
       </c>
       <c r="BH2" t="s">
         <v>159</v>
@@ -1687,16 +1695,16 @@
         <v>160</v>
       </c>
       <c r="BJ2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="BK2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="BL2" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="BM2" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="BN2" t="s">
         <v>163</v>
@@ -1708,28 +1716,31 @@
         <v>165</v>
       </c>
       <c r="BQ2" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="BR2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BS2" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="BT2" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="BU2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BV2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BW2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BX2" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
